--- a/biology/Botanique/Mimusops_erythroxylon/Mimusops_erythroxylon.xlsx
+++ b/biology/Botanique/Mimusops_erythroxylon/Mimusops_erythroxylon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mimusops erythroxylon, appelé communément bois canne ou tambalocoq rouge, est une espèce de plantes à fleurs du genre Mimusops et de la famille des Sapotaceae. C'est un arbre endémique de l'île Maurice.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son tronc est grisâtre et ses feuilles se dressent de manière oblique parfois à quinze centimètres de l'extrémité des branches. Elles sont elliptiques et rigides avec un bout rond. Les pétioles mesurent entre 1 et 6 cm pour une épaisseur de 3 à 4 mm. Ses fleurs sont solitaires à la base des feuilles. Les sépales externes mesurent entre 7 et 8 mm de même que les sépales internes.
 Ses corolles mesurent de 5 à 6 mm et les lobes de 3 à 5 mm. Son fruit peu charnu est elliptique et fuselé, d'une grosseur de 3 à 4 cm, avec un fin péricarpe. Il ne porte qu'une seule graine noire de 3 cm.
